--- a/CalculateSampleSize/zScore.xlsx
+++ b/CalculateSampleSize/zScore.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiki\Desktop\CalculateSampleSize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B509DD-B110-4044-BC37-080E8E5810C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D573E332-B647-4754-AF2F-6463ED7644DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="22320" windowHeight="11844" xr2:uid="{E7B63191-DF3A-438D-AE31-EC189879BEB8}"/>
+    <workbookView xWindow="10164" yWindow="1368" windowWidth="12732" windowHeight="10932" activeTab="1" xr2:uid="{E7B63191-DF3A-438D-AE31-EC189879BEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="zscore_left" sheetId="1" r:id="rId1"/>
-    <sheet name="dataSource" sheetId="2" r:id="rId2"/>
+    <sheet name="zscore_right" sheetId="3" r:id="rId2"/>
+    <sheet name="dataSource" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>Z</t>
   </si>
@@ -52,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +92,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -106,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -129,11 +144,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -150,8 +205,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,10 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2A9989-536F-439C-A537-D1E31A98AEA7}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K32"/>
+    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,23 +1665,1437 @@
         <v>0.999</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3631E102-A77C-46C2-B4FE-2D5D876D84FE}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8460ACD0-064A-4F7E-936C-3329272D6112}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D1" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E1" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G1" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="H1" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I1" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J1" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="K1" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>-3.4</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K2" s="7">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>-3.3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>-3.2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>-3.1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="K5" s="5">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>-2.9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>-2.8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.3E-3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.3E-3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>-2.7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="K9" s="5">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>-2.6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4.3E-3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>-2.5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>-2.4</v>
+      </c>
+      <c r="B12" s="5">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="G12" s="9">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="H12" s="9">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="I12" s="9">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J12" s="9">
+        <v>6.6E-3</v>
+      </c>
+      <c r="K12" s="9">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.32E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1.29E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="K14" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>-2.1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1.66E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.46E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1.43E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>-2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2.12E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2.07E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>-1.9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.87E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2.81E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>2.3300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>-1.8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3.44E-2</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>-1.7</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>-1.6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <v>5.16E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="I20" s="5">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="J20" s="5">
+        <v>4.65E-2</v>
+      </c>
+      <c r="K20" s="5">
+        <v>4.5499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>-1.5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="I21" s="5">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>5.5899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>-1.4</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6.8099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>-1.3</v>
+      </c>
+      <c r="B23" s="5">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="C23" s="5">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9.1800000000000007E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>9.01E-2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="J23" s="5">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>8.2299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>-1.2</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.11119999999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.10929999999999999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.1075</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.1056</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.1038</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.1003</v>
+      </c>
+      <c r="K24" s="5">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.12709999999999999</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.121</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.1515</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.1492</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.1469</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.14460000000000001</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.1401</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.13789999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>-0.9</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.17879999999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.1762</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.1736</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.1711</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.16109999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.20330000000000001</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.19489999999999999</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.1867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>-0.7</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0.2402</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.2389</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.23269999999999999</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.2296</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.2266</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.2177</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.21479999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>-0.6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0.27429999999999999</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.27089999999999997</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.2676</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.2611</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.25459999999999999</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.24510000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.3085</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.29809999999999998</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.2843</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.27760000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.34089999999999998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.3372</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.32279999999999998</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.31919999999999998</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.31559999999999999</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.31209999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>-0.3</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0.3821</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.37830000000000003</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.3745</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.37069999999999997</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.3669</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.3594</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.3483</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>-0.2</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.4168</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.41289999999999999</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.4052</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.39360000000000001</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.38969999999999999</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.38590000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.4602</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.45619999999999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.45219999999999999</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.44429999999999997</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.4325</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.47610000000000002</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.46810000000000002</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.46410000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3631E102-A77C-46C2-B4FE-2D5D876D84FE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1618,6 +3105,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{F33A97FA-CDEC-4E33-A996-55A0754737A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>